--- a/data/总结 - 20211201.xlsx
+++ b/data/总结 - 20211201.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Box\python\Cov2_protein\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724ABBD5-B5F3-4879-97EC-4CD29D7947E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8E84DA-87D5-497D-8B22-9142D0624377}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" activeTab="1" xr2:uid="{E5483962-68E5-4AD9-AF09-64285FDD6BB3}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" activeTab="2" xr2:uid="{E5483962-68E5-4AD9-AF09-64285FDD6BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="aas" sheetId="1" r:id="rId1"/>
@@ -2489,8 +2489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA604133-E1BA-4234-BC5D-457366753123}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3698,8 +3698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680C5AEE-85E2-49F2-9EE1-7C5909EE060D}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/data/总结 - 20211201.xlsx
+++ b/data/总结 - 20211201.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Box\python\Cov2_protein\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Box\Cov2_protein\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8E84DA-87D5-497D-8B22-9142D0624377}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2AFEA7-DD3D-409F-9F22-68202B59A69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" activeTab="2" xr2:uid="{E5483962-68E5-4AD9-AF09-64285FDD6BB3}"/>
+    <workbookView minimized="1" xWindow="6690" yWindow="450" windowWidth="19200" windowHeight="10060" xr2:uid="{E5483962-68E5-4AD9-AF09-64285FDD6BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="aas" sheetId="1" r:id="rId1"/>
@@ -1342,7 +1342,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy/m"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -1552,16 +1552,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="3" borderId="0" xfId="3" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="11" fillId="3" borderId="0" xfId="3" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="2" borderId="0" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="4" borderId="0" xfId="4" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="12" fillId="4" borderId="0" xfId="4" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1884,14 +1884,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D5D46A-7790-4C3E-BBF0-421ACD4EA9D0}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="104.875" customWidth="1"/>
-    <col min="3" max="3" width="31.125" customWidth="1"/>
+    <col min="2" max="2" width="96.4140625" customWidth="1"/>
+    <col min="3" max="3" width="31.08203125" customWidth="1"/>
     <col min="4" max="5" width="48.25" customWidth="1"/>
     <col min="6" max="6" width="62" customWidth="1"/>
     <col min="7" max="7" width="68.75" customWidth="1"/>
@@ -1931,7 +1931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="42.75">
+    <row r="2" spans="1:10" ht="42">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28.5">
+    <row r="3" spans="1:10" ht="28">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="28.5">
+    <row r="4" spans="1:10" ht="28">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.5">
+    <row r="5" spans="1:10" ht="28">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="71.25">
+    <row r="6" spans="1:10" ht="70">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="71.25">
+    <row r="8" spans="1:10" ht="70">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="57">
+    <row r="12" spans="1:10" ht="42">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15">
+    <row r="13" spans="1:10" ht="14.5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="99.75">
+    <row r="19" spans="1:10" ht="98">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2493,17 +2493,17 @@
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.75" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3698,11 +3698,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680C5AEE-85E2-49F2-9EE1-7C5909EE060D}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
